--- a/Breusch_Pagan_Results.xlsx
+++ b/Breusch_Pagan_Results.xlsx
@@ -468,37 +468,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>37.78337350248965</v>
+        <v>37.74479997886932</v>
       </c>
       <c r="C2">
-        <v>13.41723320743302</v>
+        <v>16.1021826524925</v>
       </c>
       <c r="D2">
-        <v>27.53349287352078</v>
+        <v>13.95988166538526</v>
       </c>
       <c r="E2">
-        <v>25.86030972315021</v>
+        <v>10.51535389271052</v>
       </c>
       <c r="F2">
-        <v>36.43120925388636</v>
+        <v>36.49105815966952</v>
       </c>
       <c r="G2">
-        <v>27.0893260150596</v>
+        <v>11.51309654310563</v>
       </c>
       <c r="H2">
-        <v>23.71494306043909</v>
+        <v>16.72876237841596</v>
       </c>
       <c r="I2">
-        <v>15.88933622828536</v>
+        <v>17.50119255662504</v>
       </c>
       <c r="J2">
-        <v>27.65480218307263</v>
+        <v>16.08055112432915</v>
       </c>
       <c r="K2">
-        <v>27.32893725849651</v>
+        <v>21.43700936146512</v>
       </c>
       <c r="L2">
-        <v>21.73314467151283</v>
+        <v>14.55000560567743</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -506,37 +506,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2.99732741664624E-05</v>
+        <v>3.058852457430524E-05</v>
       </c>
       <c r="C3">
-        <v>0.3498805562525463</v>
+        <v>0.1857461762729664</v>
       </c>
       <c r="D3">
-        <v>0.003742318052893435</v>
+        <v>0.3111271452281945</v>
       </c>
       <c r="E3">
-        <v>0.007360313119114136</v>
+        <v>0.5929043646814095</v>
       </c>
       <c r="F3">
-        <v>6.051405846262101E-05</v>
+        <v>5.868594327119544E-05</v>
       </c>
       <c r="G3">
-        <v>0.004492654932150328</v>
+        <v>0.5044892157249741</v>
       </c>
       <c r="H3">
-        <v>0.01668562321278992</v>
+        <v>0.1573682880684978</v>
       </c>
       <c r="I3">
-        <v>0.1962153455910172</v>
+        <v>0.1271593213776218</v>
       </c>
       <c r="J3">
-        <v>0.003558719438114873</v>
+        <v>0.1867906414377248</v>
       </c>
       <c r="K3">
-        <v>0.004072049192162647</v>
+        <v>0.0373547676631942</v>
       </c>
       <c r="L3">
-        <v>0.03376795546603096</v>
+        <v>0.272132502162887</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -544,37 +544,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.097732556249652</v>
+        <v>4.091629462029464</v>
       </c>
       <c r="C4">
-        <v>1.122479737577562</v>
+        <v>1.381913489460831</v>
       </c>
       <c r="D4">
-        <v>2.655090862104406</v>
+        <v>1.173853947649917</v>
       </c>
       <c r="E4">
-        <v>2.449421291061906</v>
+        <v>0.8563931918951768</v>
       </c>
       <c r="F4">
-        <v>3.88715627305632</v>
+        <v>3.896332473543316</v>
       </c>
       <c r="G4">
-        <v>2.599771155896465</v>
+        <v>0.9462749963806925</v>
       </c>
       <c r="H4">
-        <v>2.196168844991696</v>
+        <v>1.444398278839191</v>
       </c>
       <c r="I4">
-        <v>1.360858816661425</v>
+        <v>1.522479179894691</v>
       </c>
       <c r="J4">
-        <v>2.67029210644956</v>
+        <v>1.379769771137648</v>
       </c>
       <c r="K4">
-        <v>2.629548174795292</v>
+        <v>1.939335094928271</v>
       </c>
       <c r="L4">
-        <v>1.972050555668333</v>
+        <v>1.230322967100528</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -582,37 +582,37 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.0001665955729709338</v>
+        <v>0.0001690275492031531</v>
       </c>
       <c r="C5">
-        <v>0.339457436723494</v>
+        <v>0.1866006149574736</v>
       </c>
       <c r="D5">
-        <v>0.006469670209975969</v>
+        <v>0.3032775039448466</v>
       </c>
       <c r="E5">
-        <v>0.01123300380392867</v>
+        <v>0.5708441387023735</v>
       </c>
       <c r="F5">
-        <v>0.0002761177909294099</v>
+        <v>0.0002700445635616415</v>
       </c>
       <c r="G5">
-        <v>0.00750158266574966</v>
+        <v>0.4855314004542135</v>
       </c>
       <c r="H5">
-        <v>0.02223432945382016</v>
+        <v>0.1600883524440081</v>
       </c>
       <c r="I5">
-        <v>0.1963574104760397</v>
+        <v>0.1316966571075712</v>
       </c>
       <c r="J5">
-        <v>0.006212245558380344</v>
+        <v>0.187574471268923</v>
       </c>
       <c r="K5">
-        <v>0.006926899606899638</v>
+        <v>0.04433586281944372</v>
       </c>
       <c r="L5">
-        <v>0.04062175669137729</v>
+        <v>0.2669719509267245</v>
       </c>
     </row>
   </sheetData>
